--- a/testdata/test.xlsx
+++ b/testdata/test.xlsx
@@ -1,67 +1,219 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="联系人" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="测试用例" sheetId="2" r:id="rId1"/>
+    <sheet name="创建mysql实例" sheetId="1" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="140000" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>cc</t>
-  </si>
-  <si>
-    <t>zz</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>中国</t>
-  </si>
-  <si>
-    <t>我爱祖国</t>
-  </si>
-  <si>
-    <t>2018-07-18 15:52:44</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
+  <si>
+    <t>测试步骤描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作元素的定位方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作元素的定位表达式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试执行时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误截图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单击“云管控中心”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>click</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//i[@class="triangle-bottom"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单击“云数据库”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//span[@title="云数据库"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单击“创建实例”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//button[@has-permission="PRIV_RES_RDS_INSTANCE_CREATE"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本配置-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本配置-2</t>
+  </si>
+  <si>
+    <t>//div[@class="btn btn-default drop-btn"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//li[@data-id="6"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格配置</t>
+  </si>
+  <si>
+    <t>input_string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//input[@name="instanceName"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto_test_mysql_jd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="bk-form-row-cell"]/button[@ng-click="addInstance()"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用框架类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例步骤sheet名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据驱动的数据源sheet名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">执行结果 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建mysql实例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <sz val="9"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -76,16 +228,50 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="17">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" name="普通" xfId="0"/>
+  <cellStyles count="17">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
@@ -410,95 +596,229 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="19.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="n">
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="20.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="n">
-        <v>55</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="n">
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B2" t="n">
-        <v>44</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="n">
-        <v>33</v>
-      </c>
-      <c r="B3" t="n">
-        <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="n">
-        <v>44</v>
-      </c>
-      <c r="B4" t="n">
-        <v>22</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="n">
-        <v>55</v>
-      </c>
-      <c r="B5" t="n">
+      <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
+      <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/testdata/test.xlsx
+++ b/testdata/test.xlsx
@@ -1,219 +1,291 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="16060" windowWidth="25600" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="测试用例" sheetId="2" r:id="rId1"/>
-    <sheet name="创建mysql实例" sheetId="1" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="测试用例" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="登录dt-center" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="创建mysql实例" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" concurrentCalc="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
+  <si>
+    <t>用例名称</t>
+  </si>
+  <si>
+    <t>用例描述</t>
+  </si>
+  <si>
+    <t>调用框架类型</t>
+  </si>
+  <si>
+    <t>用例步骤sheet名</t>
+  </si>
+  <si>
+    <t>数据驱动的数据源sheet名</t>
+  </si>
+  <si>
+    <t>是否执行</t>
+  </si>
+  <si>
+    <t>执行结束时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">执行结果 </t>
+  </si>
+  <si>
+    <t>登录dt-center</t>
+  </si>
+  <si>
+    <t>关键字</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>创建mysql实例</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
   <si>
     <t>测试步骤描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关键字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>操作元素的定位方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>操作元素的定位表达式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>操作值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>测试执行时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>测试结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>错误信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>错误截图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开浏览器</t>
+  </si>
+  <si>
+    <t>open_browser</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>测试网址</t>
+  </si>
+  <si>
+    <t>visit_url</t>
+  </si>
+  <si>
+    <t>https://cas.env12.shuguang.com/cas/login</t>
+  </si>
+  <si>
+    <t>等待加载完成</t>
+  </si>
+  <si>
+    <t>sleep</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>输入用户名</t>
+  </si>
+  <si>
+    <t>input_string</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>输入密码</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Admin123</t>
+  </si>
+  <si>
+    <t>单击登录按钮</t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>等待</t>
+  </si>
+  <si>
+    <t>断言登录成功</t>
+  </si>
+  <si>
+    <t>assert_title</t>
+  </si>
+  <si>
+    <t>最大化窗口</t>
+  </si>
+  <si>
+    <t>maximize_browser</t>
   </si>
   <si>
     <t>单击“云管控中心”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>click</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>xpath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>//i[@class="triangle-bottom"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>单击“云数据库”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>//span[@title="云数据库"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>单击“创建实例”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>//button[@has-permission="PRIV_RES_RDS_INSTANCE_CREATE"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>基本配置-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="btn btn-default drop-btn"]</t>
   </si>
   <si>
     <t>基本配置-2</t>
   </si>
   <si>
-    <t>//div[@class="btn btn-default drop-btn"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>//li[@data-id="6"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>规格配置</t>
   </si>
   <si>
-    <t>input_string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>//input[@name="instanceName"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>auto_test_mysql_jd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>提交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>//div[@class="bk-form-row-cell"]/button[@ng-click="addInstance()"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用例名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用例描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调用框架类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用例步骤sheet名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据驱动的数据源sheet名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否执行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">执行结果 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建mysql实例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关键字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-07-21 21:33:51</t>
+  </si>
+  <si>
+    <t>2018-07-21 21:33:54</t>
+  </si>
+  <si>
+    <t>2018-07-21 21:33:56</t>
+  </si>
+  <si>
+    <t>faild</t>
+  </si>
+  <si>
+    <t>2018-07-21 21:33:57</t>
+  </si>
+  <si>
+    <t>2018-07-21 21:33:58</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="9">
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="2"/>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color theme="10"/>
       <sz val="12"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color theme="11"/>
       <sz val="12"/>
-      <color theme="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <color rgb="FFFF3030"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <color rgb="FF008B00"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <color rgb="FFFF3030"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <color rgb="FF008B00"/>
+    </font>
+    <font>
+      <color rgb="FFFF3030"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -228,50 +300,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="3">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="7">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="17">
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle builtinId="0" name="普通" xfId="0"/>
+    <cellStyle builtinId="8" hidden="1" name="超链接" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="访问过的超链接" xfId="2"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -596,229 +644,467 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G2" sqref="G2:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" width="19.83203125"/>
+    <col customWidth="1" max="2" min="2" width="24.5"/>
+    <col customWidth="1" max="3" min="3" width="21.6640625"/>
+    <col customWidth="1" max="4" min="4" width="26.33203125"/>
+    <col customWidth="1" max="5" min="5" width="22.6640625"/>
+    <col customWidth="1" max="7" min="7" width="28.83203125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="2" t="n"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup horizontalDpi="4294967292" orientation="portrait" paperSize="9" verticalDpi="4294967292"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="G10" sqref="F2:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="20.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.33203125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col customWidth="1" max="1" min="1" style="1" width="10.83203125"/>
+    <col customWidth="1" max="2" min="2" style="1" width="20"/>
+    <col customWidth="1" max="3" min="3" style="1" width="27.83203125"/>
+    <col customWidth="1" max="4" min="4" style="1" width="31.5"/>
+    <col customWidth="1" max="5" min="5" style="1" width="10.83203125"/>
+    <col customWidth="1" max="6" min="6" style="1" width="29.1640625"/>
+    <col customWidth="1" max="8" min="7" style="1" width="10.83203125"/>
+    <col customWidth="1" max="16384" min="9" style="1" width="10.83203125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>29</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup horizontalDpi="4294967292" orientation="portrait" paperSize="9" verticalDpi="4294967292"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="1" width="20.5"/>
+    <col customWidth="1" max="2" min="2" style="1" width="15.83203125"/>
+    <col customWidth="1" max="3" min="3" style="1" width="19.5"/>
+    <col customWidth="1" max="4" min="4" style="1" width="37.6640625"/>
+    <col customWidth="1" max="5" min="5" style="1" width="27.33203125"/>
+    <col customWidth="1" max="12" min="6" style="1" width="10.83203125"/>
+    <col customWidth="1" max="16384" min="13" style="1" width="10.83203125"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup horizontalDpi="4294967292" orientation="portrait" paperSize="9" verticalDpi="4294967292"/>
 </worksheet>
 </file>
--- a/testdata/test.xlsx
+++ b/testdata/test.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="16060" windowWidth="25600" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="2840" yWindow="0" windowWidth="25600" windowHeight="16200" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="测试用例" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="登录dt-center" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="创建mysql实例" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="测试用例" sheetId="1" r:id="rId1"/>
+    <sheet name="登录dt-center" sheetId="2" r:id="rId2"/>
+    <sheet name="创建mysql实例" sheetId="3" r:id="rId3"/>
+    <sheet name="工作表1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" concurrentCalc="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="78">
   <si>
     <t>用例名称</t>
   </si>
@@ -51,12 +57,12 @@
     <t>y</t>
   </si>
   <si>
+    <t>faild</t>
+  </si>
+  <si>
     <t>创建mysql实例</t>
   </si>
   <si>
-    <t>n</t>
-  </si>
-  <si>
     <t>测试步骤描述</t>
   </si>
   <si>
@@ -93,13 +99,19 @@
     <t>pass</t>
   </si>
   <si>
+    <t>最大化窗口</t>
+  </si>
+  <si>
+    <t>maximize_browser</t>
+  </si>
+  <si>
     <t>测试网址</t>
   </si>
   <si>
     <t>visit_url</t>
   </si>
   <si>
-    <t>https://cas.env12.shuguang.com/cas/login</t>
+    <t>https://cas.env12.shuguang.com/cas/login?service=https%3A%2F%2Fmanage.env12.shuguang.com%2Fmanage%2Flogin%2Fcas</t>
   </si>
   <si>
     <t>等待加载完成</t>
@@ -141,7 +153,13 @@
     <t>click</t>
   </si>
   <si>
-    <t>等待</t>
+    <t>xpath</t>
+  </si>
+  <si>
+    <t>//input[@value='登录']</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
   <si>
     <t>断言登录成功</t>
@@ -150,18 +168,12 @@
     <t>assert_title</t>
   </si>
   <si>
-    <t>最大化窗口</t>
-  </si>
-  <si>
-    <t>maximize_browser</t>
+    <t>阿里云</t>
   </si>
   <si>
     <t>单击“云管控中心”</t>
   </si>
   <si>
-    <t>xpath</t>
-  </si>
-  <si>
     <t>//i[@class="triangle-bottom"]</t>
   </si>
   <si>
@@ -171,6 +183,9 @@
     <t>//span[@title="云数据库"]</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>单击“创建实例”</t>
   </si>
   <si>
@@ -204,88 +219,110 @@
     <t>//div[@class="bk-form-row-cell"]/button[@ng-click="addInstance()"]</t>
   </si>
   <si>
-    <t>2018-07-21 21:33:51</t>
-  </si>
-  <si>
-    <t>2018-07-21 21:33:54</t>
-  </si>
-  <si>
-    <t>2018-07-21 21:33:56</t>
-  </si>
-  <si>
-    <t>faild</t>
-  </si>
-  <si>
-    <t>2018-07-21 21:33:57</t>
-  </si>
-  <si>
-    <t>2018-07-21 21:33:58</t>
+    <t>关闭浏览器</t>
+  </si>
+  <si>
+    <t>close_browser</t>
+  </si>
+  <si>
+    <t>2018-07-21 23:17:41</t>
+  </si>
+  <si>
+    <t>2018-07-21 23:17:43</t>
+  </si>
+  <si>
+    <t>2018-07-21 23:17:45</t>
+  </si>
+  <si>
+    <t>2018-07-21 23:17:46</t>
+  </si>
+  <si>
+    <t>2018-07-21 23:17:57</t>
+  </si>
+  <si>
+    <t>2018-07-21 23:18:09</t>
+  </si>
+  <si>
+    <t>2018-07-21 23:18:10</t>
+  </si>
+  <si>
+    <t>2018-07-21 23:18:12</t>
+  </si>
+  <si>
+    <t>2018-07-21 23:18:17</t>
+  </si>
+  <si>
+    <t>2018-07-21 23:18:19</t>
+  </si>
+  <si>
+    <t>2018-07-21 23:18:20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
-      <family val="2"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
-      <family val="2"/>
-      <color theme="10"/>
-      <sz val="12"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
-      <family val="2"/>
-      <color theme="11"/>
-      <sz val="12"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="宋体"/>
-      <color rgb="FFFF3030"/>
-      <sz val="12"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
-      <color rgb="FF008B00"/>
-      <sz val="12"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF008B00"/>
       <name val="宋体"/>
-      <color rgb="FFFF3030"/>
-      <sz val="12"/>
     </font>
     <font>
-      <color rgb="FF008B00"/>
-    </font>
-    <font>
+      <sz val="12"/>
       <color rgb="FFFF3030"/>
+      <name val="宋体"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -300,26 +337,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+  <cellStyleXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle builtinId="0" name="普通" xfId="0"/>
-    <cellStyle builtinId="8" hidden="1" name="超链接" xfId="1"/>
-    <cellStyle builtinId="9" hidden="1" name="访问过的超链接" xfId="2"/>
+  <cellStyles count="5">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
@@ -644,25 +688,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="19.83203125"/>
-    <col customWidth="1" max="2" min="2" width="24.5"/>
-    <col customWidth="1" max="3" min="3" width="21.6640625"/>
-    <col customWidth="1" max="4" min="4" width="26.33203125"/>
-    <col customWidth="1" max="5" min="5" width="22.6640625"/>
-    <col customWidth="1" max="7" min="7" width="28.83203125"/>
+    <col min="1" max="1" width="19.83203125" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" customWidth="1"/>
+    <col min="7" max="7" width="28.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -708,58 +748,65 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="2" t="n"/>
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <pageSetup horizontalDpi="4294967292" orientation="portrait" paperSize="9" verticalDpi="4294967292"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="F2:G10"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="10.83203125"/>
-    <col customWidth="1" max="2" min="2" style="1" width="20"/>
-    <col customWidth="1" max="3" min="3" style="1" width="27.83203125"/>
-    <col customWidth="1" max="4" min="4" style="1" width="31.5"/>
-    <col customWidth="1" max="5" min="5" style="1" width="10.83203125"/>
-    <col customWidth="1" max="6" min="6" style="1" width="29.1640625"/>
-    <col customWidth="1" max="8" min="7" style="1" width="10.83203125"/>
-    <col customWidth="1" max="16384" min="9" style="1" width="10.83203125"/>
+    <col min="1" max="1" width="10.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.1640625" style="1" customWidth="1"/>
+    <col min="7" max="16" width="10.83203125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -802,7 +849,7 @@
         <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>24</v>
@@ -815,11 +862,8 @@
       <c r="B3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>24</v>
@@ -827,16 +871,16 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>24</v>
@@ -844,62 +888,65 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="F5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="F6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>65</v>
+        <v>70</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -907,70 +954,84 @@
         <v>41</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>65</v>
+        <v>71</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>65</v>
+        <v>72</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="F10" t="s">
-        <v>67</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>24</v>
+        <v>73</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <pageSetup horizontalDpi="4294967292" orientation="portrait" paperSize="9" verticalDpi="4294967292"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="20.5"/>
-    <col customWidth="1" max="2" min="2" style="1" width="15.83203125"/>
-    <col customWidth="1" max="3" min="3" style="1" width="19.5"/>
-    <col customWidth="1" max="4" min="4" style="1" width="37.6640625"/>
-    <col customWidth="1" max="5" min="5" style="1" width="27.33203125"/>
-    <col customWidth="1" max="12" min="6" style="1" width="10.83203125"/>
-    <col customWidth="1" max="16384" min="13" style="1" width="10.83203125"/>
+    <col min="1" max="1" width="20.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" style="1" customWidth="1"/>
+    <col min="6" max="20" width="10.83203125" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1004,30 +1065,39 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="F2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>50</v>
+        <v>31</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1035,76 +1105,188 @@
         <v>51</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="F4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="F5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>56</v>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>59</v>
+      <c r="F7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="E9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <pageSetup horizontalDpi="4294967292" orientation="portrait" paperSize="9" verticalDpi="4294967292"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1">
+      <c r="A2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>